--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,25 +522,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.696372</v>
+        <v>0.3518616666666667</v>
       </c>
       <c r="H2">
-        <v>5.089116000000001</v>
+        <v>1.055585</v>
       </c>
       <c r="I2">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396739</v>
       </c>
       <c r="J2">
-        <v>0.8766440577238608</v>
+        <v>0.5958054833396738</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,33 +549,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1553083333333333</v>
+        <v>0.02331333333333334</v>
       </c>
       <c r="N2">
-        <v>0.465925</v>
+        <v>0.06994</v>
       </c>
       <c r="O2">
-        <v>0.8694820523825963</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.8694820523825962</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2634607080333334</v>
+        <v>0.008203068322222224</v>
       </c>
       <c r="R2">
-        <v>2.3711463723</v>
+        <v>0.0738276149</v>
       </c>
       <c r="S2">
-        <v>0.7622262745187497</v>
+        <v>0.5958054833396739</v>
       </c>
       <c r="T2">
-        <v>0.7622262745187497</v>
+        <v>0.5958054833396738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.696372</v>
+        <v>0.238703</v>
       </c>
       <c r="H3">
-        <v>5.089116000000001</v>
+        <v>0.716109</v>
       </c>
       <c r="I3">
-        <v>0.8766440577238608</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="J3">
-        <v>0.8766440577238608</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,146 +617,22 @@
         <v>0.06994</v>
       </c>
       <c r="O3">
-        <v>0.1305179476174037</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.1305179476174036</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.03954808589333334</v>
+        <v>0.005564962606666667</v>
       </c>
       <c r="R3">
-        <v>0.35593277304</v>
+        <v>0.05008466346</v>
       </c>
       <c r="S3">
-        <v>0.114417783205111</v>
+        <v>0.4041945166603262</v>
       </c>
       <c r="T3">
-        <v>0.114417783205111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.238703</v>
-      </c>
-      <c r="H4">
-        <v>0.7161090000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.1233559422761392</v>
-      </c>
-      <c r="J4">
-        <v>0.1233559422761392</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1553083333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.465925</v>
-      </c>
-      <c r="O4">
-        <v>0.8694820523825963</v>
-      </c>
-      <c r="P4">
-        <v>0.8694820523825962</v>
-      </c>
-      <c r="Q4">
-        <v>0.03707256509166667</v>
-      </c>
-      <c r="R4">
-        <v>0.333653085825</v>
-      </c>
-      <c r="S4">
-        <v>0.1072557778638466</v>
-      </c>
-      <c r="T4">
-        <v>0.1072557778638465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.238703</v>
-      </c>
-      <c r="H5">
-        <v>0.7161090000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.1233559422761392</v>
-      </c>
-      <c r="J5">
-        <v>0.1233559422761392</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.02331333333333334</v>
-      </c>
-      <c r="N5">
-        <v>0.06994</v>
-      </c>
-      <c r="O5">
-        <v>0.1305179476174037</v>
-      </c>
-      <c r="P5">
-        <v>0.1305179476174036</v>
-      </c>
-      <c r="Q5">
-        <v>0.005564962606666668</v>
-      </c>
-      <c r="R5">
-        <v>0.05008466346000001</v>
-      </c>
-      <c r="S5">
-        <v>0.0161001644122926</v>
-      </c>
-      <c r="T5">
-        <v>0.0161001644122926</v>
+        <v>0.4041945166603262</v>
       </c>
     </row>
   </sheetData>
